--- a/client/vueComponentRelationship.xlsx
+++ b/client/vueComponentRelationship.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hacktiv8\Phase 2 Redone\Portfolio\mini-wp-1\client\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110A6D72-602A-4E0F-8052-F6D0D2E8068B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281864FE-EFFA-4493-B946-32984B9ADD45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E873574E-CF6B-4B2A-870E-7144987E2FB9}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{E873574E-CF6B-4B2A-870E-7144987E2FB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,26 +31,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>mainPage</t>
   </si>
   <si>
-    <t>userForm</t>
-  </si>
-  <si>
-    <t>homePage</t>
-  </si>
-  <si>
     <t>contentPage</t>
   </si>
   <si>
     <t>cardSmall</t>
   </si>
   <si>
-    <t>cardDetail</t>
-  </si>
-  <si>
     <t>createEdit</t>
   </si>
   <si>
@@ -61,6 +52,23 @@
   </si>
   <si>
     <t>userProfilePage</t>
+  </si>
+  <si>
+    <t>articleReaderPage</t>
+  </si>
+  <si>
+    <t>userForm
+(loginregister)</t>
+  </si>
+  <si>
+    <t>homePage
+(loginregister)</t>
+  </si>
+  <si>
+    <t>card small</t>
+  </si>
+  <si>
+    <t>goBackButton</t>
   </si>
 </sst>
 </file>
@@ -108,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -118,6 +126,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -433,33 +444,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E19DC6-7272-4B21-9554-93BA031AC225}">
-  <dimension ref="C10:I26"/>
+  <dimension ref="C10:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="8.88671875" style="1"/>
     <col min="4" max="4" width="3" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="3" style="2" customWidth="1"/>
     <col min="9" max="9" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>1</v>
+      <c r="E10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.3">
@@ -471,28 +482,25 @@
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E13" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.3">
       <c r="G15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="I16" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="G17" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="5:9" x14ac:dyDescent="0.3">
       <c r="G18" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="5:9" x14ac:dyDescent="0.3">
@@ -504,23 +512,20 @@
     </row>
     <row r="20" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E20" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="I21" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.3">
       <c r="G23" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="G24" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="5:9" x14ac:dyDescent="0.3">
@@ -532,8 +537,38 @@
     </row>
     <row r="26" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E26" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="G28" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
